--- a/zack_kateka/Biotapestry/test_biotapestry.xlsx
+++ b/zack_kateka/Biotapestry/test_biotapestry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackmcnulty/Desktop/CSE/Python/Tellurium/job/Biotapestry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackmcnulty/Desktop/CSE/Python/Tellurium/job/DREAM-work/zack_kateka/Biotapestry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BB478-F0AE-3C45-9441-78E892F730C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E344F0-AAF6-1F4F-B760-73B076442B33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="4140" windowWidth="28040" windowHeight="17040" xr2:uid="{790F24D4-2D95-BA49-A4FF-E29F303F71FA}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{790F24D4-2D95-BA49-A4FF-E29F303F71FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>model</t>
   </si>
@@ -42,9 +42,6 @@
     <t>general</t>
   </si>
   <si>
-    <t>Tutorial model</t>
-  </si>
-  <si>
     <t>gene</t>
   </si>
   <si>
@@ -63,31 +60,13 @@
     <t>negative</t>
   </si>
   <si>
-    <t>signal</t>
-  </si>
-  <si>
-    <t>Tutorial Model</t>
-  </si>
-  <si>
-    <t>Gene4</t>
-  </si>
-  <si>
     <t>Gene5</t>
   </si>
   <si>
-    <t>Gene6</t>
-  </si>
-  <si>
-    <t>promoteSig</t>
-  </si>
-  <si>
-    <t>Region A</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>INPUT</t>
   </si>
 </sst>
 </file>
@@ -439,20 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B2B233-94EA-2044-AD8F-3BED544C0292}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,135 +439,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
       <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
